--- a/nodes_source_analyses/industry/industry_other_food_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_food_flexibility_p2h_electricity.converter.xlsx
@@ -192,9 +192,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -616,6 +613,10 @@
   <si>
     <t>Variable operational and maintenance costs</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -626,7 +627,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -842,11 +843,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1464,7 +1460,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1758,20 +1754,20 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1788,13 +1784,13 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1840,14 +1836,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1858,9 +1854,9 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1912,7 +1908,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1969,31 +1965,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2493,83 +2489,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3316,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3325,7 +3245,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3458,14 +3378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3488,7 +3408,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="204" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C2" s="205"/>
       <c r="D2" s="205"/>
@@ -3590,7 +3510,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="162"/>
       <c r="C12" s="147" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="164">
@@ -3599,11 +3519,11 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="163"/>
       <c r="K12" s="24"/>
@@ -3612,7 +3532,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="162"/>
       <c r="C13" s="148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>2</v>
@@ -3623,11 +3543,11 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="163"/>
       <c r="K13" s="24"/>
@@ -3636,10 +3556,10 @@
       <c r="A14" s="96"/>
       <c r="B14" s="151"/>
       <c r="C14" s="149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="183">
         <f>'Research data'!H9</f>
@@ -3647,11 +3567,11 @@
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="130" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="165" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="166"/>
       <c r="K14" s="33"/>
@@ -3660,7 +3580,7 @@
       <c r="A15" s="96"/>
       <c r="B15" s="151"/>
       <c r="C15" s="150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="164">
@@ -3671,7 +3591,7 @@
       <c r="G15" s="94"/>
       <c r="H15" s="94"/>
       <c r="I15" s="167" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="166"/>
       <c r="K15" s="33"/>
@@ -3679,7 +3599,7 @@
     <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="151"/>
       <c r="C16" s="151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>2</v>
@@ -3692,14 +3612,14 @@
       <c r="G16" s="94"/>
       <c r="H16" s="94"/>
       <c r="I16" s="167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="151"/>
       <c r="C17" s="151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>2</v>
@@ -3711,14 +3631,14 @@
       <c r="G17" s="94"/>
       <c r="H17" s="94"/>
       <c r="I17" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="199"/>
       <c r="C18" s="156" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="200">
@@ -3737,7 +3657,7 @@
     <row r="19" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="199"/>
       <c r="C19" s="156" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="200">
@@ -3756,7 +3676,7 @@
     <row r="20" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="199"/>
       <c r="C20" s="156" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="200">
@@ -3775,7 +3695,7 @@
     <row r="21" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="199"/>
       <c r="C21" s="156" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="200">
@@ -3833,7 +3753,7 @@
       </c>
       <c r="H24" s="34"/>
       <c r="I24" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" s="170"/>
     </row>
@@ -3843,7 +3763,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="164">
         <f>'Research data'!H25</f>
@@ -3851,21 +3771,21 @@
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="170"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="172"/>
       <c r="C26" s="153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="164">
         <f>'Research data'!H26</f>
@@ -3873,18 +3793,18 @@
       </c>
       <c r="F26" s="116"/>
       <c r="G26" s="114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="116"/>
       <c r="I26" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="172"/>
       <c r="C27" s="153" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="164">
@@ -3893,18 +3813,18 @@
       </c>
       <c r="F27" s="116"/>
       <c r="G27" s="119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H27" s="116"/>
       <c r="I27" s="174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="172"/>
       <c r="C28" s="153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="164">
@@ -3913,18 +3833,18 @@
       </c>
       <c r="F28" s="116"/>
       <c r="G28" s="119" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="116"/>
       <c r="I28" s="175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="172"/>
       <c r="C29" s="154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="164">
@@ -3933,18 +3853,18 @@
       </c>
       <c r="F29" s="116"/>
       <c r="G29" s="119" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" s="116"/>
       <c r="I29" s="175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="172"/>
       <c r="C30" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="115"/>
       <c r="E30" s="164">
@@ -3953,11 +3873,11 @@
       </c>
       <c r="F30" s="116"/>
       <c r="G30" s="120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H30" s="116"/>
       <c r="I30" s="174" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="173"/>
     </row>
@@ -3965,21 +3885,21 @@
       <c r="A31" s="96"/>
       <c r="B31" s="151"/>
       <c r="C31" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="E31" s="168">
         <v>0.1</v>
       </c>
       <c r="F31" s="94"/>
       <c r="G31" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="94"/>
       <c r="I31" s="167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J31" s="166"/>
     </row>
@@ -3987,10 +3907,10 @@
       <c r="A32" s="96"/>
       <c r="B32" s="151"/>
       <c r="C32" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="E32" s="168">
         <v>0</v>
@@ -3999,7 +3919,7 @@
       <c r="G32" s="94"/>
       <c r="H32" s="94"/>
       <c r="I32" s="167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J32" s="166"/>
     </row>
@@ -4044,11 +3964,11 @@
       </c>
       <c r="F35" s="94"/>
       <c r="G35" s="94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" s="94"/>
       <c r="I35" s="171" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" s="166"/>
     </row>
@@ -4056,7 +3976,7 @@
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>1</v>
@@ -4067,7 +3987,7 @@
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H36" s="94"/>
       <c r="I36" s="176"/>
@@ -4077,10 +3997,10 @@
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>68</v>
       </c>
       <c r="E37" s="177">
         <f>'Research data'!H36</f>
@@ -4088,7 +4008,7 @@
       </c>
       <c r="F37" s="94"/>
       <c r="G37" s="94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="94"/>
       <c r="I37" s="178"/>
@@ -4110,7 +4030,7 @@
       <c r="G38" s="94"/>
       <c r="H38" s="94"/>
       <c r="I38" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J38" s="166"/>
     </row>
@@ -4118,7 +4038,7 @@
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
       <c r="C39" s="156" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="168">
@@ -4128,7 +4048,7 @@
       <c r="G39" s="94"/>
       <c r="H39" s="94"/>
       <c r="I39" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J39" s="166"/>
     </row>
@@ -4136,7 +4056,7 @@
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="168">
@@ -4146,7 +4066,7 @@
       <c r="G40" s="94"/>
       <c r="H40" s="94"/>
       <c r="I40" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="166"/>
     </row>
@@ -4154,7 +4074,7 @@
       <c r="A41" s="99"/>
       <c r="B41" s="151"/>
       <c r="C41" s="156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="168">
@@ -4164,7 +4084,7 @@
       <c r="G41" s="94"/>
       <c r="H41" s="94"/>
       <c r="I41" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="166"/>
     </row>
@@ -4172,7 +4092,7 @@
       <c r="A42" s="99"/>
       <c r="B42" s="151"/>
       <c r="C42" s="156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="168">
@@ -4182,7 +4102,7 @@
       <c r="G42" s="94"/>
       <c r="H42" s="94"/>
       <c r="I42" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J42" s="166"/>
     </row>
@@ -4190,7 +4110,7 @@
       <c r="A43" s="99"/>
       <c r="B43" s="151"/>
       <c r="C43" s="156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="94"/>
       <c r="E43" s="168">
@@ -4200,7 +4120,7 @@
       <c r="G43" s="94"/>
       <c r="H43" s="94"/>
       <c r="I43" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J43" s="166"/>
     </row>
@@ -4208,7 +4128,7 @@
       <c r="A44" s="99"/>
       <c r="B44" s="151"/>
       <c r="C44" s="156" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" s="94"/>
       <c r="E44" s="176">
@@ -4218,7 +4138,7 @@
       <c r="G44" s="94"/>
       <c r="H44" s="94"/>
       <c r="I44" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J44" s="166"/>
     </row>
@@ -4226,7 +4146,7 @@
       <c r="A45" s="99"/>
       <c r="B45" s="151"/>
       <c r="C45" s="156" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="94"/>
       <c r="E45" s="176">
@@ -4236,7 +4156,7 @@
       <c r="G45" s="94"/>
       <c r="H45" s="94"/>
       <c r="I45" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" s="166"/>
     </row>
@@ -4244,7 +4164,7 @@
       <c r="A46" s="99"/>
       <c r="B46" s="151"/>
       <c r="C46" s="156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="94"/>
       <c r="E46" s="176">
@@ -4254,7 +4174,7 @@
       <c r="G46" s="94"/>
       <c r="H46" s="94"/>
       <c r="I46" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="166"/>
     </row>
@@ -4262,7 +4182,7 @@
       <c r="A47" s="99"/>
       <c r="B47" s="151"/>
       <c r="C47" s="156" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="94"/>
       <c r="E47" s="176">
@@ -4272,7 +4192,7 @@
       <c r="G47" s="94"/>
       <c r="H47" s="94"/>
       <c r="I47" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" s="166"/>
     </row>
@@ -4280,7 +4200,7 @@
       <c r="A48" s="99"/>
       <c r="B48" s="182"/>
       <c r="C48" s="179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D48" s="180"/>
       <c r="E48" s="176">
@@ -4290,7 +4210,7 @@
       <c r="G48" s="180"/>
       <c r="H48" s="180"/>
       <c r="I48" s="167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="181"/>
     </row>
@@ -4502,38 +4422,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -4601,19 +4489,19 @@
       </c>
       <c r="G4" s="81"/>
       <c r="H4" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="81"/>
       <c r="L4" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M4" s="81"/>
       <c r="N4" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4651,7 +4539,7 @@
     <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="197" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
@@ -4674,7 +4562,7 @@
     <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
@@ -4699,12 +4587,12 @@
     <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="130" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="102" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="135">
@@ -4724,7 +4612,7 @@
       <c r="A10" s="96"/>
       <c r="B10" s="97"/>
       <c r="C10" s="94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -4750,12 +4638,12 @@
       <c r="A11" s="96"/>
       <c r="B11" s="97"/>
       <c r="C11" s="117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="95"/>
       <c r="E11" s="95"/>
       <c r="F11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="98">
         <f>L11</f>
@@ -4769,7 +4657,7 @@
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="96"/>
     </row>
@@ -4777,7 +4665,7 @@
       <c r="A12" s="96"/>
       <c r="B12" s="97"/>
       <c r="C12" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4796,7 +4684,7 @@
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -4816,7 +4704,7 @@
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="94" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4833,12 +4721,12 @@
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
       <c r="C15" s="196" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="98">
@@ -4851,7 +4739,7 @@
         <v>50</v>
       </c>
       <c r="N15" s="118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O15" s="96"/>
     </row>
@@ -4859,7 +4747,7 @@
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
       <c r="C16" s="196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4874,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O16" s="96"/>
     </row>
@@ -4882,7 +4770,7 @@
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
       <c r="C17" s="196" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -4897,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O17" s="96"/>
     </row>
@@ -4905,7 +4793,7 @@
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
       <c r="C18" s="196" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -4920,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O18" s="96"/>
     </row>
@@ -4992,7 +4880,7 @@
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
       <c r="C24" s="194" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="101"/>
@@ -5015,10 +4903,10 @@
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
       <c r="C25" s="195" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="106">
         <f t="shared" si="0"/>
@@ -5031,17 +4919,17 @@
       <c r="L25" s="103"/>
       <c r="M25" s="103"/>
       <c r="N25" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
       <c r="C26" s="195" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="136">
         <f t="shared" si="0"/>
@@ -5054,14 +4942,14 @@
       <c r="L26" s="103"/>
       <c r="M26" s="103"/>
       <c r="N26" s="110" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
       <c r="C27" s="185" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="122"/>
       <c r="E27" s="122"/>
@@ -5080,14 +4968,14 @@
       <c r="K27" s="125"/>
       <c r="M27" s="122"/>
       <c r="N27" s="126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
       <c r="C28" s="185" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="122"/>
       <c r="E28" s="122"/>
@@ -5106,14 +4994,14 @@
       <c r="K28" s="125"/>
       <c r="M28" s="122"/>
       <c r="N28" s="126" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" s="121" t="s">
         <v>20</v>
@@ -5135,12 +5023,12 @@
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
       <c r="C30" s="186" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="122"/>
       <c r="E30" s="122"/>
       <c r="F30" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="122"/>
       <c r="H30" s="124">
@@ -5154,7 +5042,7 @@
       <c r="K30" s="125"/>
       <c r="M30" s="122"/>
       <c r="N30" s="118" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -5214,7 +5102,7 @@
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
       <c r="C35" s="191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="102" t="s">
         <v>1</v>
@@ -5230,17 +5118,17 @@
       </c>
       <c r="M35" s="104"/>
       <c r="N35" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
       <c r="C36" s="192" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F36" s="102" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="106">
         <f t="shared" ref="H36:H46" si="1">L36</f>
@@ -5253,7 +5141,7 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5272,14 +5160,14 @@
         <v>0</v>
       </c>
       <c r="N37" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
       <c r="C38" s="188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H38" s="106">
         <f t="shared" si="1"/>
@@ -5290,14 +5178,14 @@
         <v>0</v>
       </c>
       <c r="N38" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
       <c r="C39" s="188" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39" s="106">
         <f t="shared" si="1"/>
@@ -5308,14 +5196,14 @@
         <v>0</v>
       </c>
       <c r="N39" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
       <c r="C40" s="188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H40" s="106">
         <f t="shared" si="1"/>
@@ -5326,14 +5214,14 @@
         <v>0</v>
       </c>
       <c r="N40" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
       <c r="C41" s="188" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" s="106">
         <f t="shared" si="1"/>
@@ -5344,14 +5232,14 @@
         <v>0</v>
       </c>
       <c r="N41" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
       <c r="C42" s="188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H42" s="106">
         <f t="shared" si="1"/>
@@ -5362,12 +5250,12 @@
         <v>0</v>
       </c>
       <c r="N42" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H43" s="106">
         <f t="shared" si="1"/>
@@ -5377,12 +5265,12 @@
         <v>1</v>
       </c>
       <c r="N43" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="106">
         <f t="shared" si="1"/>
@@ -5392,12 +5280,12 @@
         <v>1</v>
       </c>
       <c r="N44" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="189" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H45" s="106">
         <f t="shared" si="1"/>
@@ -5407,12 +5295,12 @@
         <v>1</v>
       </c>
       <c r="N45" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H46" s="106">
         <f t="shared" si="1"/>
@@ -5422,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5507,13 +5395,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>9</v>
@@ -5533,13 +5421,13 @@
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="133" t="s">
         <v>107</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="47">
         <v>2015</v>
@@ -5551,16 +5439,16 @@
         <v>42558</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="131" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -5585,7 +5473,7 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
@@ -5598,7 +5486,7 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="99"/>
       <c r="E11" s="99"/>
@@ -5611,7 +5499,7 @@
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="108" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -5675,10 +5563,10 @@
       <c r="B19" s="51"/>
       <c r="C19" s="139"/>
       <c r="D19" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="142" t="s">
         <v>116</v>
-      </c>
-      <c r="E19" s="142" t="s">
-        <v>117</v>
       </c>
       <c r="F19" s="48">
         <v>2015</v>
@@ -5690,7 +5578,7 @@
         <v>42612</v>
       </c>
       <c r="J19" s="143" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -5707,13 +5595,13 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="51"/>
       <c r="C21" s="139" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="140" t="s">
-        <v>113</v>
-      </c>
       <c r="E21" s="140" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="47">
         <v>2013</v>
@@ -5725,10 +5613,10 @@
         <v>42612</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="141" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
@@ -5745,7 +5633,7 @@
       <c r="H30" s="144"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1"/>
     <hyperlink ref="J21" r:id="rId2"/>
@@ -5805,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>25</v>
@@ -6007,7 +5895,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
@@ -6030,10 +5918,10 @@
         <v>2190</v>
       </c>
       <c r="F17" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="57" t="s">
         <v>130</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>131</v>
       </c>
       <c r="I17" s="64"/>
       <c r="J17" s="64"/>
@@ -6048,7 +5936,7 @@
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
       <c r="G18" s="57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="64"/>
       <c r="J18" s="64"/>
@@ -6141,7 +6029,7 @@
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="63"/>
       <c r="C24" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="64">
         <v>89</v>
@@ -6247,10 +6135,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="64"/>
       <c r="I30" s="64"/>
@@ -6391,7 +6279,7 @@
       </c>
       <c r="F39" s="64"/>
       <c r="G39" s="127" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="127"/>
       <c r="I39" s="127"/>
@@ -6499,7 +6387,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K48" s="64"/>
       <c r="L48" s="64"/>
@@ -6553,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K52" s="64"/>
       <c r="L52" s="64"/>
@@ -6573,7 +6461,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K53" s="64"/>
       <c r="L53" s="64"/>
@@ -6589,7 +6477,7 @@
         <v>0.5</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" s="64"/>
       <c r="L54" s="64"/>
@@ -6609,7 +6497,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K55" s="64"/>
       <c r="L55" s="64"/>
@@ -6625,10 +6513,10 @@
         <v>25</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K56" s="64"/>
       <c r="L56" s="64"/>
@@ -6643,7 +6531,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G57" s="57" t="s">
         <v>24</v>
@@ -6789,7 +6677,7 @@
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="63"/>
       <c r="C74" s="142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
@@ -6819,10 +6707,10 @@
         <v>50</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G78" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N78" s="64"/>
       <c r="O78" s="64"/>
@@ -7031,7 +6919,7 @@
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="63"/>
       <c r="C140" s="57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D140" s="57">
         <v>14</v>
@@ -7125,21 +7013,21 @@
       <c r="A163" s="127"/>
       <c r="B163" s="129"/>
       <c r="E163" s="57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="127"/>
       <c r="B164" s="129"/>
       <c r="E164" s="57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="127"/>
       <c r="B165" s="129"/>
       <c r="E165" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -7214,7 +7102,7 @@
       <c r="A183" s="127"/>
       <c r="B183" s="129"/>
       <c r="C183" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -7229,10 +7117,10 @@
         <v>50</v>
       </c>
       <c r="F185" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G185" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -7242,13 +7130,13 @@
         <v>1</v>
       </c>
       <c r="F186" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G186" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="I186" s="57" t="s">
         <v>142</v>
-      </c>
-      <c r="G186" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="I186" s="57" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -7259,10 +7147,10 @@
         <v>50</v>
       </c>
       <c r="F187" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G187" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">

--- a/nodes_source_analyses/industry/industry_other_food_flexibility_p2h_electricity.converter.xlsx
+++ b/nodes_source_analyses/industry/industry_other_food_flexibility_p2h_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE803D19-65B0-D542-A54F-C756C9C2F298}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>Source</t>
   </si>
@@ -593,18 +594,6 @@
     <t>electricity_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial investment costs </t>
   </si>
   <si>
@@ -621,18 +610,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -821,6 +817,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,6 +825,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,6 +833,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,17 +841,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,12 +862,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -881,11 +885,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1183,813 +1189,810 @@
   </borders>
   <cellStyleXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2477,13 +2480,16 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="275"/>
+    <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2501,7 +2507,13 @@
     <xdr:ext cx="3632200" cy="927100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2562,7 +2574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2600,7 +2618,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2638,7 +2662,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2676,7 +2706,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3197,40 +3233,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="27" customFormat="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3239,7 +3275,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
@@ -3248,7 +3284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3257,29 +3293,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="66" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="67"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="68"/>
       <c r="C10" s="69"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="68" t="s">
         <v>27</v>
@@ -3288,33 +3324,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="68"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="68"/>
       <c r="C15" s="69"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="68" t="s">
         <v>32</v>
@@ -3323,49 +3359,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="68"/>
       <c r="C17" s="73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="68"/>
       <c r="C18" s="74" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="68"/>
       <c r="C19" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="76"/>
       <c r="C21" s="78" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="76"/>
       <c r="C22" s="79" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="76"/>
       <c r="C23" s="80" t="s">
         <v>40</v>
@@ -3378,79 +3414,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="204" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="206"/>
+    <row r="2" spans="1:11">
+      <c r="B2" s="203" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="207"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="206"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="208"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="207"/>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="209"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="208"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="212"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="211"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="157"/>
       <c r="C8" s="158"/>
       <c r="D8" s="159"/>
@@ -3461,7 +3496,7 @@
       <c r="I8" s="159"/>
       <c r="J8" s="160"/>
     </row>
-    <row r="9" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="24" customFormat="1">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
         <v>19</v>
@@ -3482,7 +3517,7 @@
       </c>
       <c r="J9" s="161"/>
     </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="24" customFormat="1">
       <c r="B10" s="162"/>
       <c r="C10" s="162"/>
       <c r="D10" s="19"/>
@@ -3493,7 +3528,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="163"/>
     </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="24" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="162"/>
       <c r="C11" s="162" t="s">
         <v>44</v>
@@ -3506,7 +3541,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="163"/>
     </row>
-    <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17" thickBot="1">
       <c r="A12" s="24"/>
       <c r="B12" s="162"/>
       <c r="C12" s="147" t="s">
@@ -3528,7 +3563,7 @@
       <c r="J12" s="163"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="24"/>
       <c r="B13" s="162"/>
       <c r="C13" s="148" t="s">
@@ -3552,7 +3587,7 @@
       <c r="J13" s="163"/>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="96"/>
       <c r="B14" s="151"/>
       <c r="C14" s="149" t="s">
@@ -3576,7 +3611,7 @@
       <c r="J14" s="166"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="151"/>
       <c r="C15" s="150" t="s">
@@ -3596,7 +3631,7 @@
       <c r="J15" s="166"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="B16" s="151"/>
       <c r="C16" s="151" t="s">
         <v>56</v>
@@ -3616,7 +3651,7 @@
       </c>
       <c r="J16" s="166"/>
     </row>
-    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="17" thickBot="1">
       <c r="B17" s="151"/>
       <c r="C17" s="151" t="s">
         <v>57</v>
@@ -3635,83 +3670,83 @@
       </c>
       <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="199"/>
+    <row r="18" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
+      <c r="B18" s="198"/>
       <c r="C18" s="156" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="200">
+      <c r="E18" s="199">
         <f>'Research data'!H15</f>
         <v>50</v>
       </c>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202" t="str">
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201" t="str">
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J18" s="203"/>
-    </row>
-    <row r="19" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="199"/>
+      <c r="J18" s="202"/>
+    </row>
+    <row r="19" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
+      <c r="B19" s="198"/>
       <c r="C19" s="156" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="200">
+      <c r="E19" s="199">
         <f>'Research data'!H16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="201"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202" t="str">
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201" t="str">
         <f>'Research data'!N16</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J19" s="203"/>
-    </row>
-    <row r="20" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="199"/>
+      <c r="J19" s="202"/>
+    </row>
+    <row r="20" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="198"/>
       <c r="C20" s="156" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="200">
+      <c r="E20" s="199">
         <f>'Research data'!H17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202" t="str">
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="201" t="str">
         <f>'Research data'!N17</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J20" s="203"/>
-    </row>
-    <row r="21" spans="1:10" s="198" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="199"/>
+      <c r="J20" s="202"/>
+    </row>
+    <row r="21" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
+      <c r="B21" s="198"/>
       <c r="C21" s="156" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="200">
+      <c r="E21" s="199">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202" t="str">
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="201" t="str">
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J21" s="203"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="202"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22" s="152"/>
       <c r="C22" s="152"/>
       <c r="D22" s="34"/>
@@ -3722,7 +3757,7 @@
       <c r="I22" s="34"/>
       <c r="J22" s="170"/>
     </row>
-    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="17" thickBot="1">
       <c r="B23" s="152"/>
       <c r="C23" s="162" t="s">
         <v>43</v>
@@ -3735,7 +3770,7 @@
       <c r="I23" s="34"/>
       <c r="J23" s="170"/>
     </row>
-    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="17" thickBot="1">
       <c r="B24" s="152"/>
       <c r="C24" s="152" t="s">
         <v>22</v>
@@ -3757,7 +3792,7 @@
       </c>
       <c r="J24" s="170"/>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="B25" s="152"/>
       <c r="C25" s="152" t="s">
         <v>23</v>
@@ -3779,7 +3814,7 @@
       </c>
       <c r="J25" s="170"/>
     </row>
-    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="17" thickBot="1">
       <c r="B26" s="172"/>
       <c r="C26" s="153" t="s">
         <v>87</v>
@@ -3801,7 +3836,7 @@
       </c>
       <c r="J26" s="173"/>
     </row>
-    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="17" thickBot="1">
       <c r="B27" s="172"/>
       <c r="C27" s="153" t="s">
         <v>85</v>
@@ -3821,7 +3856,7 @@
       </c>
       <c r="J27" s="173"/>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="17" thickBot="1">
       <c r="B28" s="172"/>
       <c r="C28" s="153" t="s">
         <v>86</v>
@@ -3841,7 +3876,7 @@
       </c>
       <c r="J28" s="173"/>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="17" thickBot="1">
       <c r="B29" s="172"/>
       <c r="C29" s="154" t="s">
         <v>97</v>
@@ -3861,7 +3896,7 @@
       </c>
       <c r="J29" s="173"/>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="17" thickBot="1">
       <c r="B30" s="172"/>
       <c r="C30" s="153" t="s">
         <v>88</v>
@@ -3881,7 +3916,7 @@
       </c>
       <c r="J30" s="173"/>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="17" thickBot="1">
       <c r="A31" s="96"/>
       <c r="B31" s="151"/>
       <c r="C31" s="151" t="s">
@@ -3903,7 +3938,7 @@
       </c>
       <c r="J31" s="166"/>
     </row>
-    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="17" thickBot="1">
       <c r="A32" s="96"/>
       <c r="B32" s="151"/>
       <c r="C32" s="151" t="s">
@@ -3923,7 +3958,7 @@
       </c>
       <c r="J32" s="166"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="96"/>
       <c r="B33" s="151"/>
       <c r="C33" s="151"/>
@@ -3935,7 +3970,7 @@
       <c r="I33" s="94"/>
       <c r="J33" s="166"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="151"/>
       <c r="C34" s="162" t="s">
@@ -3949,7 +3984,7 @@
       <c r="I34" s="94"/>
       <c r="J34" s="166"/>
     </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="151"/>
       <c r="C35" s="151" t="s">
@@ -3972,7 +4007,7 @@
       </c>
       <c r="J35" s="166"/>
     </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
@@ -3993,7 +4028,7 @@
       <c r="I36" s="176"/>
       <c r="J36" s="166"/>
     </row>
-    <row r="37" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
@@ -4014,7 +4049,7 @@
       <c r="I37" s="178"/>
       <c r="J37" s="166"/>
     </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A38" s="99"/>
       <c r="B38" s="151"/>
       <c r="C38" s="151" t="s">
@@ -4034,7 +4069,7 @@
       </c>
       <c r="J38" s="166"/>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
       <c r="C39" s="156" t="s">
@@ -4052,15 +4087,15 @@
       </c>
       <c r="J39" s="166"/>
     </row>
-    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="168">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D40" s="94"/>
+      <c r="E40" s="176">
+        <v>0</v>
       </c>
       <c r="F40" s="94"/>
       <c r="G40" s="94"/>
@@ -4070,15 +4105,15 @@
       </c>
       <c r="J40" s="166"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A41" s="99"/>
       <c r="B41" s="151"/>
       <c r="C41" s="156" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="168">
-        <v>1</v>
+        <v>72</v>
+      </c>
+      <c r="D41" s="94"/>
+      <c r="E41" s="176">
+        <v>0</v>
       </c>
       <c r="F41" s="94"/>
       <c r="G41" s="94"/>
@@ -4088,15 +4123,15 @@
       </c>
       <c r="J41" s="166"/>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A42" s="99"/>
       <c r="B42" s="151"/>
       <c r="C42" s="156" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="168">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D42" s="94"/>
+      <c r="E42" s="176">
+        <v>0</v>
       </c>
       <c r="F42" s="94"/>
       <c r="G42" s="94"/>
@@ -4106,15 +4141,15 @@
       </c>
       <c r="J42" s="166"/>
     </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A43" s="99"/>
       <c r="B43" s="151"/>
       <c r="C43" s="156" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="D43" s="94"/>
-      <c r="E43" s="168">
-        <v>1</v>
+      <c r="E43" s="176">
+        <v>0</v>
       </c>
       <c r="F43" s="94"/>
       <c r="G43" s="94"/>
@@ -4124,100 +4159,75 @@
       </c>
       <c r="J43" s="166"/>
     </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A44" s="99"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="94"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="179" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="180"/>
       <c r="E44" s="176">
         <v>0</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
       <c r="I44" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="J44" s="166"/>
-    </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="94"/>
-      <c r="E45" s="176">
-        <v>0</v>
-      </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J45" s="166"/>
-    </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="176">
-        <v>0</v>
-      </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="166"/>
-    </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="94"/>
-      <c r="E47" s="176">
-        <v>0</v>
-      </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J47" s="166"/>
-    </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="180"/>
-      <c r="E48" s="176">
-        <v>0</v>
-      </c>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J48" s="181"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="181"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="146"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="96"/>
       <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
+      <c r="C49" s="145"/>
       <c r="D49" s="96"/>
       <c r="E49" s="96"/>
       <c r="F49" s="96"/>
@@ -4226,10 +4236,10 @@
       <c r="I49" s="96"/>
       <c r="J49" s="96"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
+      <c r="C50" s="145"/>
       <c r="D50" s="96"/>
       <c r="E50" s="96"/>
       <c r="F50" s="96"/>
@@ -4238,7 +4248,7 @@
       <c r="I50" s="96"/>
       <c r="J50" s="96"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10">
       <c r="A51" s="96"/>
       <c r="B51" s="96"/>
       <c r="C51" s="145"/>
@@ -4250,10 +4260,11 @@
       <c r="I51" s="96"/>
       <c r="J51" s="96"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10">
       <c r="A52" s="96"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="146"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="96"/>
       <c r="E52" s="96"/>
       <c r="F52" s="96"/>
       <c r="G52" s="96"/>
@@ -4261,160 +4272,112 @@
       <c r="I52" s="96"/>
       <c r="J52" s="96"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10">
       <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="146"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="96"/>
+      <c r="C54" s="146"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="146"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="146"/>
+    </row>
+    <row r="57" spans="1:10">
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="96"/>
+    <row r="58" spans="1:10">
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10">
       <c r="C64" s="146"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="146"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="146"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="146"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="146"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="146"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="146"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="146"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="146"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="146"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="146"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3">
       <c r="C75" s="146"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3">
       <c r="C76" s="146"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3">
       <c r="C77" s="146"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3">
       <c r="C78" s="146"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3">
       <c r="C79" s="146"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3">
       <c r="C80" s="146"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3">
       <c r="C81" s="146"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="146"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" s="146"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3">
       <c r="C84" s="146"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3">
       <c r="C85" s="146"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3">
       <c r="C86" s="146"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3">
       <c r="C87" s="146"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" s="146"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" s="146"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="146"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4426,40 +4389,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:Q46"/>
+  <dimension ref="A2:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="35"/>
+    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -4477,7 +4440,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
     </row>
-    <row r="4" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="24" customFormat="1">
       <c r="B4" s="23"/>
       <c r="C4" s="81" t="s">
         <v>19</v>
@@ -4504,7 +4467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="38"/>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
@@ -4519,7 +4482,7 @@
       <c r="M5" s="40"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="38"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4536,9 +4499,9 @@
       <c r="M6" s="10"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="38"/>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="196" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="43"/>
@@ -4559,9 +4522,9 @@
       <c r="M7" s="40"/>
       <c r="N7" s="93"/>
     </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="38"/>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="196" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="43"/>
@@ -4584,7 +4547,7 @@
       <c r="M8" s="40"/>
       <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="17" thickBot="1">
       <c r="B9" s="38"/>
       <c r="C9" s="130" t="s">
         <v>98</v>
@@ -4608,7 +4571,7 @@
       <c r="M9" s="40"/>
       <c r="N9" s="93"/>
     </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="17" thickBot="1">
       <c r="A10" s="96"/>
       <c r="B10" s="97"/>
       <c r="C10" s="94" t="s">
@@ -4634,7 +4597,7 @@
       <c r="N10" s="118"/>
       <c r="O10" s="96"/>
     </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="17" thickBot="1">
       <c r="A11" s="96"/>
       <c r="B11" s="97"/>
       <c r="C11" s="117" t="s">
@@ -4661,7 +4624,7 @@
       </c>
       <c r="O11" s="96"/>
     </row>
-    <row r="12" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="17" thickBot="1">
       <c r="A12" s="96"/>
       <c r="B12" s="97"/>
       <c r="C12" s="94" t="s">
@@ -4680,7 +4643,7 @@
       <c r="N12" s="118"/>
       <c r="O12" s="96"/>
     </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="17" thickBot="1">
       <c r="A13" s="96"/>
       <c r="B13" s="97"/>
       <c r="C13" s="94" t="s">
@@ -4700,7 +4663,7 @@
       <c r="N13" s="118"/>
       <c r="O13" s="96"/>
     </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="17" thickBot="1">
       <c r="A14" s="96"/>
       <c r="B14" s="97"/>
       <c r="C14" s="94" t="s">
@@ -4717,10 +4680,10 @@
       <c r="N14" s="118"/>
       <c r="O14" s="96"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="195" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="12"/>
@@ -4743,10 +4706,10 @@
       </c>
       <c r="O15" s="96"/>
     </row>
-    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="196" t="s">
+      <c r="C16" s="195" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="12"/>
@@ -4766,10 +4729,10 @@
       </c>
       <c r="O16" s="96"/>
     </row>
-    <row r="17" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="195" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="12"/>
@@ -4789,10 +4752,10 @@
       </c>
       <c r="O17" s="96"/>
     </row>
-    <row r="18" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
-      <c r="C18" s="196" t="s">
+      <c r="C18" s="195" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="12"/>
@@ -4812,7 +4775,7 @@
       </c>
       <c r="O18" s="96"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="96"/>
       <c r="B19" s="97"/>
       <c r="C19" s="94"/>
@@ -4825,7 +4788,7 @@
       <c r="N19" s="118"/>
       <c r="O19" s="96"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="96"/>
       <c r="B20" s="97"/>
       <c r="C20" s="94"/>
@@ -4838,7 +4801,7 @@
       <c r="N20" s="118"/>
       <c r="O20" s="96"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="B21" s="38"/>
       <c r="H21" s="41"/>
       <c r="I21" s="94"/>
@@ -4848,7 +4811,7 @@
       <c r="M21" s="40"/>
       <c r="N21" s="118"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="96"/>
       <c r="B22" s="97"/>
       <c r="C22" s="31"/>
@@ -4861,7 +4824,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17" thickBot="1">
       <c r="A23" s="96"/>
       <c r="B23" s="97"/>
       <c r="C23" s="12" t="s">
@@ -4876,11 +4839,11 @@
       <c r="M23" s="103"/>
       <c r="N23" s="93"/>
     </row>
-    <row r="24" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
-      <c r="C24" s="194" t="s">
-        <v>149</v>
+      <c r="C24" s="193" t="s">
+        <v>145</v>
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="101"/>
@@ -4899,11 +4862,11 @@
       <c r="K24" s="103"/>
       <c r="N24" s="93"/>
     </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="195" t="s">
-        <v>150</v>
+      <c r="C25" s="194" t="s">
+        <v>146</v>
       </c>
       <c r="F25" s="107" t="s">
         <v>51</v>
@@ -4922,11 +4885,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="17" thickBot="1">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="195" t="s">
-        <v>151</v>
+      <c r="C26" s="194" t="s">
+        <v>147</v>
       </c>
       <c r="F26" s="102" t="s">
         <v>60</v>
@@ -4945,7 +4908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
       <c r="C27" s="185" t="s">
@@ -4971,7 +4934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
       <c r="C28" s="185" t="s">
@@ -4997,7 +4960,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
       <c r="C29" s="185" t="s">
@@ -5019,7 +4982,7 @@
       <c r="M29" s="100"/>
       <c r="N29" s="110"/>
     </row>
-    <row r="30" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
       <c r="C30" s="186" t="s">
@@ -5045,7 +5008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
       <c r="C31" s="187"/>
@@ -5053,14 +5016,14 @@
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="B32" s="38"/>
       <c r="C32" s="187"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
     </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="17" thickBot="1">
       <c r="A33" s="96"/>
       <c r="B33" s="97"/>
       <c r="C33" s="31" t="s">
@@ -5075,10 +5038,10 @@
       <c r="M33" s="11"/>
       <c r="N33" s="118"/>
     </row>
-    <row r="34" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="190" t="s">
+      <c r="C34" s="189" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="102" t="s">
@@ -5098,10 +5061,10 @@
       <c r="M34" s="104"/>
       <c r="N34" s="118"/>
     </row>
-    <row r="35" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="191" t="s">
+      <c r="C35" s="190" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="102" t="s">
@@ -5121,17 +5084,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="191" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="102" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="106">
-        <f t="shared" ref="H36:H46" si="1">L36</f>
+        <f t="shared" ref="H36:H42" si="1">L36</f>
         <v>0</v>
       </c>
       <c r="I36" s="104"/>
@@ -5144,10 +5107,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="193" t="s">
+      <c r="C37" s="192" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5163,7 +5126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
       <c r="C38" s="188" t="s">
@@ -5181,7 +5144,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="17" thickBot="1">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
       <c r="C39" s="188" t="s">
@@ -5199,7 +5162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="17" thickBot="1">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
       <c r="C40" s="188" t="s">
@@ -5217,7 +5180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
       <c r="C41" s="188" t="s">
@@ -5235,7 +5198,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="17" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
       <c r="C42" s="188" t="s">
@@ -5250,66 +5213,6 @@
         <v>0</v>
       </c>
       <c r="N42" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="189" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="135">
-        <v>1</v>
-      </c>
-      <c r="N43" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="189" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L44" s="135">
-        <v>1</v>
-      </c>
-      <c r="N44" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="189" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L45" s="135">
-        <v>1</v>
-      </c>
-      <c r="N45" s="118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="189" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L46" s="135">
-        <v>1</v>
-      </c>
-      <c r="N46" s="118" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5320,8 +5223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J30"/>
@@ -5330,22 +5233,22 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="49"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -5356,7 +5259,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="50"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5369,7 +5272,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="47"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="51"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -5380,7 +5283,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="47"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="56"/>
       <c r="C5" s="14" t="s">
         <v>16</v>
@@ -5407,7 +5310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="51"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5418,7 +5321,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="51"/>
       <c r="C7" s="132" t="s">
         <v>106</v>
@@ -5445,7 +5348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="51"/>
       <c r="C8" s="131" t="s">
         <v>102</v>
@@ -5458,7 +5361,7 @@
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="51"/>
       <c r="C9" s="96" t="s">
         <v>24</v>
@@ -5470,7 +5373,7 @@
       <c r="H9" s="90"/>
       <c r="I9" s="47"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
         <v>78</v>
@@ -5483,7 +5386,7 @@
       <c r="I10" s="87"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="51"/>
       <c r="C11" s="109" t="s">
         <v>55</v>
@@ -5496,7 +5399,7 @@
       <c r="I11" s="47"/>
       <c r="J11" s="99"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="51"/>
       <c r="C12" s="108" t="s">
         <v>80</v>
@@ -5509,7 +5412,7 @@
       <c r="I12" s="47"/>
       <c r="J12" s="47"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="51"/>
       <c r="C13" s="109"/>
       <c r="D13" s="47"/>
@@ -5520,7 +5423,7 @@
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="51"/>
       <c r="C14" s="96"/>
       <c r="D14" s="113"/>
@@ -5531,7 +5434,7 @@
       <c r="I14" s="99"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="51"/>
       <c r="E15" s="92"/>
       <c r="F15" s="47"/>
@@ -5540,7 +5443,7 @@
       <c r="I15" s="99"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="51"/>
       <c r="C16" s="132"/>
       <c r="D16" s="96"/>
@@ -5551,15 +5454,15 @@
       <c r="I16" s="99"/>
       <c r="J16" s="47"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="51"/>
       <c r="C17" s="131"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="51"/>
       <c r="C18" s="96"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="51"/>
       <c r="C19" s="139"/>
       <c r="D19" s="142" t="s">
@@ -5581,7 +5484,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="51"/>
       <c r="C20" s="109"/>
       <c r="D20" s="47"/>
@@ -5592,7 +5495,7 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="51"/>
       <c r="C21" s="139" t="s">
         <v>111</v>
@@ -5619,7 +5522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="51"/>
       <c r="D22" s="47"/>
       <c r="E22" s="47"/>
@@ -5629,15 +5532,15 @@
       <c r="I22" s="47"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="H30" s="144"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="35" type="noConversion"/>
+  <phoneticPr fontId="36" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1"/>
-    <hyperlink ref="J21" r:id="rId2"/>
-    <hyperlink ref="J19" r:id="rId3"/>
+    <hyperlink ref="J7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J21" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5645,8 +5548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O242"/>
@@ -5655,23 +5558,22 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="57"/>
-    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="57"/>
-    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="57"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="57"/>
+    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="57"/>
+    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" thickBot="1"/>
+    <row r="2" spans="1:15">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5686,7 +5588,7 @@
       <c r="M2" s="59"/>
       <c r="N2" s="60"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="61"/>
       <c r="B3" s="83"/>
       <c r="C3" s="65" t="s">
@@ -5708,7 +5610,7 @@
       <c r="M3" s="62"/>
       <c r="N3" s="84"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="B4" s="63"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -5724,7 +5626,7 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="B5" s="63"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
@@ -5739,7 +5641,7 @@
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="B6" s="63"/>
       <c r="D6" s="64"/>
       <c r="G6" s="64"/>
@@ -5752,7 +5654,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="B7" s="63"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -5767,7 +5669,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="B8" s="63"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -5782,7 +5684,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="B9" s="63"/>
       <c r="C9" s="64"/>
       <c r="D9" s="64"/>
@@ -5798,7 +5700,7 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -5814,7 +5716,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -5830,7 +5732,7 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="B12" s="63"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -5846,7 +5748,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="B13" s="63"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -5862,7 +5764,7 @@
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="B14" s="63"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -5878,7 +5780,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="B15" s="63"/>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -5892,7 +5794,7 @@
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="B16" s="63"/>
       <c r="C16" s="64" t="s">
         <v>128</v>
@@ -5910,7 +5812,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:15">
       <c r="B17" s="63"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -5931,7 +5833,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15">
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -5946,7 +5848,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:15">
       <c r="B19" s="63"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64"/>
@@ -5962,7 +5864,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15">
       <c r="B20" s="63"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64"/>
@@ -5978,7 +5880,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15">
       <c r="B21" s="63"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64"/>
@@ -5994,7 +5896,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15">
       <c r="B22" s="63"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64"/>
@@ -6010,7 +5912,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:15">
       <c r="B23" s="63"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64"/>
@@ -6026,7 +5928,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:15">
       <c r="B24" s="63"/>
       <c r="C24" s="64" t="s">
         <v>100</v>
@@ -6046,7 +5948,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15">
       <c r="B25" s="63"/>
       <c r="C25" s="64"/>
       <c r="D25" s="64"/>
@@ -6062,7 +5964,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15">
       <c r="B26" s="63"/>
       <c r="C26" s="64"/>
       <c r="D26" s="64"/>
@@ -6078,7 +5980,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15">
       <c r="B27" s="63"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64"/>
@@ -6094,7 +5996,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15">
       <c r="B28" s="63"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
@@ -6110,7 +6012,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="64"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15">
       <c r="B29" s="63"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
@@ -6126,7 +6028,7 @@
       <c r="N29" s="64"/>
       <c r="O29" s="64"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15">
       <c r="B30" s="63"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
@@ -6149,7 +6051,7 @@
       <c r="N30" s="64"/>
       <c r="O30" s="64"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15">
       <c r="B31" s="63"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
@@ -6165,7 +6067,7 @@
       <c r="N31" s="64"/>
       <c r="O31" s="64"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15">
       <c r="B32" s="63"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -6181,7 +6083,7 @@
       <c r="N32" s="64"/>
       <c r="O32" s="64"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15">
       <c r="B33" s="63"/>
       <c r="C33" s="64"/>
       <c r="E33" s="64"/>
@@ -6196,7 +6098,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="64"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15">
       <c r="B34" s="63"/>
       <c r="E34" s="64"/>
       <c r="H34" s="64"/>
@@ -6208,7 +6110,7 @@
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:15">
       <c r="B35" s="63"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -6224,7 +6126,7 @@
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:15">
       <c r="B36" s="63"/>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -6240,7 +6142,7 @@
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15">
       <c r="B37" s="63"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
@@ -6256,7 +6158,7 @@
       <c r="N37" s="64"/>
       <c r="O37" s="64"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15">
       <c r="B38" s="63"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64"/>
@@ -6270,7 +6172,7 @@
       <c r="N38" s="64"/>
       <c r="O38" s="64"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15">
       <c r="B39" s="63"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
@@ -6290,7 +6192,7 @@
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:15">
       <c r="B40" s="63"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
@@ -6306,7 +6208,7 @@
       <c r="N40" s="64"/>
       <c r="O40" s="64"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:15">
       <c r="B41" s="63"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
@@ -6322,7 +6224,7 @@
       <c r="N41" s="64"/>
       <c r="O41" s="64"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15">
       <c r="B42" s="63"/>
       <c r="C42" s="64"/>
       <c r="K42" s="64"/>
@@ -6331,7 +6233,7 @@
       <c r="N42" s="64"/>
       <c r="O42" s="64"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15">
       <c r="B43" s="63"/>
       <c r="C43" s="64"/>
       <c r="K43" s="64"/>
@@ -6340,7 +6242,7 @@
       <c r="N43" s="64"/>
       <c r="O43" s="64"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15">
       <c r="B44" s="63"/>
       <c r="C44" s="64"/>
       <c r="K44" s="64"/>
@@ -6349,7 +6251,7 @@
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15">
       <c r="B45" s="63"/>
       <c r="C45" s="64"/>
       <c r="K45" s="64"/>
@@ -6358,7 +6260,7 @@
       <c r="N45" s="64"/>
       <c r="O45" s="64"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15">
       <c r="B46" s="63"/>
       <c r="C46" s="64"/>
       <c r="E46" s="89"/>
@@ -6369,7 +6271,7 @@
       <c r="N46" s="64"/>
       <c r="O46" s="64"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15">
       <c r="B47" s="63"/>
       <c r="C47" s="64"/>
       <c r="E47" s="64"/>
@@ -6380,7 +6282,7 @@
       <c r="N47" s="64"/>
       <c r="O47" s="64"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15">
       <c r="B48" s="63"/>
       <c r="C48" s="64"/>
       <c r="E48" s="57">
@@ -6395,7 +6297,7 @@
       <c r="N48" s="64"/>
       <c r="O48" s="64"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:15">
       <c r="B49" s="63"/>
       <c r="C49" s="64"/>
       <c r="E49" s="57">
@@ -6414,7 +6316,7 @@
       <c r="N49" s="64"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15">
       <c r="B50" s="63"/>
       <c r="C50" s="64"/>
       <c r="J50"/>
@@ -6424,7 +6326,7 @@
       <c r="N50" s="64"/>
       <c r="O50" s="64"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15">
       <c r="B51" s="63"/>
       <c r="D51" s="64"/>
       <c r="K51" s="64"/>
@@ -6433,7 +6335,7 @@
       <c r="N51" s="64"/>
       <c r="O51" s="64"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15">
       <c r="B52" s="63"/>
       <c r="C52" s="64"/>
       <c r="D52" s="64"/>
@@ -6449,7 +6351,7 @@
       <c r="N52" s="64"/>
       <c r="O52" s="64"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15">
       <c r="B53" s="63"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
@@ -6469,7 +6371,7 @@
       <c r="N53" s="64"/>
       <c r="O53" s="64"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15">
       <c r="B54" s="63"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
@@ -6485,7 +6387,7 @@
       <c r="N54" s="64"/>
       <c r="O54" s="64"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15">
       <c r="B55" s="63"/>
       <c r="C55" s="64"/>
       <c r="D55" s="64"/>
@@ -6505,7 +6407,7 @@
       <c r="N55" s="64"/>
       <c r="O55" s="64"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15">
       <c r="B56" s="63"/>
       <c r="C56" s="64"/>
       <c r="E56" s="57">
@@ -6524,7 +6426,7 @@
       <c r="N56" s="64"/>
       <c r="O56" s="64"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15">
       <c r="B57" s="63"/>
       <c r="C57" s="64"/>
       <c r="E57" s="57">
@@ -6542,7 +6444,7 @@
       <c r="N57" s="64"/>
       <c r="O57" s="64"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15">
       <c r="B58" s="63"/>
       <c r="C58" s="64"/>
       <c r="K58" s="64"/>
@@ -6551,7 +6453,7 @@
       <c r="N58" s="64"/>
       <c r="O58" s="64"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15">
       <c r="B59" s="63"/>
       <c r="C59" s="64"/>
       <c r="K59" s="64"/>
@@ -6560,7 +6462,7 @@
       <c r="N59" s="64"/>
       <c r="O59" s="64"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15">
       <c r="B60" s="63"/>
       <c r="C60" s="64"/>
       <c r="K60" s="64"/>
@@ -6569,7 +6471,7 @@
       <c r="N60" s="64"/>
       <c r="O60" s="64"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15">
       <c r="B61" s="63"/>
       <c r="C61" s="64"/>
       <c r="K61" s="64"/>
@@ -6578,7 +6480,7 @@
       <c r="N61" s="64"/>
       <c r="O61" s="64"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15">
       <c r="B62" s="63"/>
       <c r="C62" s="64"/>
       <c r="K62" s="64"/>
@@ -6587,7 +6489,7 @@
       <c r="N62" s="64"/>
       <c r="O62" s="64"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15">
       <c r="B63" s="63"/>
       <c r="C63" s="64"/>
       <c r="K63" s="64"/>
@@ -6596,7 +6498,7 @@
       <c r="N63" s="64"/>
       <c r="O63" s="64"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15">
       <c r="B64" s="63"/>
       <c r="C64" s="64"/>
       <c r="K64" s="64"/>
@@ -6605,7 +6507,7 @@
       <c r="N64" s="64"/>
       <c r="O64" s="64"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15">
       <c r="B65" s="63"/>
       <c r="C65" s="64"/>
       <c r="K65" s="64"/>
@@ -6614,7 +6516,7 @@
       <c r="N65" s="64"/>
       <c r="O65" s="64"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15">
       <c r="B66" s="63"/>
       <c r="C66" s="64"/>
       <c r="K66" s="64"/>
@@ -6623,7 +6525,7 @@
       <c r="N66" s="64"/>
       <c r="O66" s="64"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15">
       <c r="B67" s="63"/>
       <c r="C67" s="64"/>
       <c r="K67" s="64"/>
@@ -6632,7 +6534,7 @@
       <c r="N67" s="64"/>
       <c r="O67" s="64"/>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15">
       <c r="B68" s="63"/>
       <c r="C68" s="64"/>
       <c r="K68" s="64"/>
@@ -6641,7 +6543,7 @@
       <c r="N68" s="64"/>
       <c r="O68" s="64"/>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15">
       <c r="B69" s="63"/>
       <c r="C69" s="64"/>
       <c r="K69" s="64"/>
@@ -6650,7 +6552,7 @@
       <c r="N69" s="64"/>
       <c r="O69" s="64"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15">
       <c r="B70" s="63"/>
       <c r="C70" s="64"/>
       <c r="K70" s="64"/>
@@ -6659,22 +6561,22 @@
       <c r="N70" s="64"/>
       <c r="O70" s="64"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15">
       <c r="B71" s="63"/>
       <c r="N71" s="64"/>
       <c r="O71" s="64"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15">
       <c r="B72" s="63"/>
       <c r="N72" s="64"/>
       <c r="O72" s="64"/>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15">
       <c r="B73" s="63"/>
       <c r="N73" s="64"/>
       <c r="O73" s="64"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15">
       <c r="B74" s="63"/>
       <c r="C74" s="142" t="s">
         <v>115</v>
@@ -6682,26 +6584,26 @@
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15">
       <c r="B75" s="63"/>
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="N75" s="64"/>
       <c r="O75" s="64"/>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15">
       <c r="B76" s="63"/>
       <c r="C76" s="64"/>
       <c r="N76" s="64"/>
       <c r="O76" s="64"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15">
       <c r="B77" s="63"/>
       <c r="E77" s="128"/>
       <c r="N77" s="64"/>
       <c r="O77" s="64"/>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15">
       <c r="B78" s="63"/>
       <c r="E78" s="57">
         <v>50</v>
@@ -6715,208 +6617,208 @@
       <c r="N78" s="64"/>
       <c r="O78" s="64"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15">
       <c r="B79" s="63"/>
       <c r="N79" s="64"/>
       <c r="O79" s="64"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15">
       <c r="B80" s="63"/>
       <c r="F80" s="111"/>
       <c r="N80" s="64"/>
       <c r="O80" s="64"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15">
       <c r="B81" s="63"/>
       <c r="N81" s="64"/>
       <c r="O81" s="64"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15">
       <c r="B82" s="63"/>
       <c r="N82" s="64"/>
       <c r="O82" s="64"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15">
       <c r="B83" s="63"/>
       <c r="N83" s="64"/>
       <c r="O83" s="64"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15">
       <c r="B84" s="63"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15">
       <c r="B85" s="63"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15">
       <c r="B86" s="63"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15">
       <c r="B87" s="63"/>
       <c r="C87" s="64"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15">
       <c r="B88" s="63"/>
       <c r="C88" s="64"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15">
       <c r="B89" s="63"/>
       <c r="C89" s="64"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15">
       <c r="B90" s="63"/>
       <c r="C90" s="64"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15">
       <c r="B91" s="63"/>
       <c r="C91" s="64"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:15">
       <c r="B92" s="63"/>
       <c r="C92" s="64"/>
       <c r="E92" s="112"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:15">
       <c r="B93" s="63"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:15">
       <c r="B94" s="63"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:15">
       <c r="B95" s="63"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:15">
       <c r="B96" s="63"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2">
       <c r="B97" s="63"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2">
       <c r="B98" s="63"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2">
       <c r="B99" s="63"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2">
       <c r="B100" s="63"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2">
       <c r="B101" s="63"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2">
       <c r="B102" s="63"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2">
       <c r="B103" s="63"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2">
       <c r="B104" s="63"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2">
       <c r="B105" s="63"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2">
       <c r="B106" s="63"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2">
       <c r="B107" s="63"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2">
       <c r="B108" s="63"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2">
       <c r="B109" s="63"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2">
       <c r="B110" s="63"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2">
       <c r="B111" s="63"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2">
       <c r="B112" s="63"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2">
       <c r="B113" s="63"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2">
       <c r="B114" s="63"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2">
       <c r="B115" s="63"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2">
       <c r="B116" s="63"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2">
       <c r="B117" s="63"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2">
       <c r="B118" s="63"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2">
       <c r="B119" s="63"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2">
       <c r="B120" s="63"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2">
       <c r="B121" s="63"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2">
       <c r="B122" s="63"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2">
       <c r="B123" s="63"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2">
       <c r="B124" s="63"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2">
       <c r="B125" s="63"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2">
       <c r="B126" s="63"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2">
       <c r="B127" s="63"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2">
       <c r="B128" s="63"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4">
       <c r="B129" s="63"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4">
       <c r="B130" s="63"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4">
       <c r="B131" s="63"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4">
       <c r="B132" s="63"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4">
       <c r="B133" s="63"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4">
       <c r="B134" s="63"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4">
       <c r="B135" s="63"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4">
       <c r="B136" s="63"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4">
       <c r="B137" s="63"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4">
       <c r="B138" s="63"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4">
       <c r="B139" s="63"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4">
       <c r="B140" s="63"/>
       <c r="C140" s="57" t="s">
         <v>112</v>
@@ -6925,191 +6827,191 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4">
       <c r="B141" s="63"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4">
       <c r="B142" s="63"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4">
       <c r="B143" s="63"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4">
       <c r="B144" s="63"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" s="127"/>
       <c r="B145" s="129"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" s="127"/>
       <c r="B146" s="129"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" s="127"/>
       <c r="B147" s="129"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" s="127"/>
       <c r="B148" s="129"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" s="127"/>
       <c r="B149" s="129"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" s="127"/>
       <c r="B150" s="129"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" s="127"/>
       <c r="B151" s="129"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" s="127"/>
       <c r="B152" s="129"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" s="127"/>
       <c r="B153" s="129"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" s="127"/>
       <c r="B154" s="129"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" s="127"/>
       <c r="B155" s="129"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" s="127"/>
       <c r="B156" s="129"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" s="127"/>
       <c r="B157" s="129"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" s="127"/>
       <c r="B158" s="129"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" s="127"/>
       <c r="B159" s="129"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" s="127"/>
       <c r="B160" s="129"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5">
       <c r="A161" s="127"/>
       <c r="B161" s="129"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5">
       <c r="A162" s="127"/>
       <c r="B162" s="129"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5">
       <c r="A163" s="127"/>
       <c r="B163" s="129"/>
       <c r="E163" s="57" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="127"/>
       <c r="B164" s="129"/>
       <c r="E164" s="57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="127"/>
       <c r="B165" s="129"/>
       <c r="E165" s="57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="127"/>
       <c r="B166" s="129"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="127"/>
       <c r="B167" s="129"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5">
       <c r="A168" s="127"/>
       <c r="B168" s="129"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5">
       <c r="A169" s="127"/>
       <c r="B169" s="129"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="127"/>
       <c r="B170" s="129"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="127"/>
       <c r="B171" s="129"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="127"/>
       <c r="B172" s="129"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5">
       <c r="A173" s="127"/>
       <c r="B173" s="129"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="127"/>
       <c r="B174" s="129"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="127"/>
       <c r="B175" s="129"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5">
       <c r="A176" s="127"/>
       <c r="B176" s="129"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" s="127"/>
       <c r="B177" s="129"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" s="127"/>
       <c r="B178" s="129"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" s="127"/>
       <c r="B179" s="129"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" s="127"/>
       <c r="B180" s="129"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" s="127"/>
       <c r="B181" s="129"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" s="127"/>
       <c r="B182" s="129"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" s="127"/>
       <c r="B183" s="129"/>
       <c r="C183" s="57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" s="127"/>
       <c r="B184" s="129"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" s="127"/>
       <c r="B185" s="129"/>
       <c r="E185" s="57">
@@ -7123,7 +7025,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" s="127"/>
       <c r="B186" s="129"/>
       <c r="E186" s="57">
@@ -7139,7 +7041,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" s="127"/>
       <c r="B187" s="129"/>
       <c r="E187" s="57">
@@ -7153,223 +7055,223 @@
         <v>140</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" s="127"/>
       <c r="B188" s="129"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" s="127"/>
       <c r="B189" s="129"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" s="127"/>
       <c r="B190" s="129"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" s="127"/>
       <c r="B191" s="129"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" s="127"/>
       <c r="B192" s="129"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" s="127"/>
       <c r="B193" s="129"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" s="127"/>
       <c r="B194" s="129"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" s="127"/>
       <c r="B195" s="129"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" s="127"/>
       <c r="B196" s="129"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" s="127"/>
       <c r="B197" s="129"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" s="127"/>
       <c r="B198" s="129"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" s="127"/>
       <c r="B199" s="129"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" s="127"/>
       <c r="B200" s="129"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" s="127"/>
       <c r="B201" s="129"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" s="127"/>
       <c r="B202" s="129"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" s="127"/>
       <c r="B203" s="129"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" s="127"/>
       <c r="B204" s="129"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" s="127"/>
       <c r="B205" s="129"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" s="127"/>
       <c r="B206" s="129"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" s="127"/>
       <c r="B207" s="129"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" s="127"/>
       <c r="B208" s="129"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" s="127"/>
       <c r="B209" s="129"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" s="127"/>
       <c r="B210" s="129"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" s="127"/>
       <c r="B211" s="129"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" s="127"/>
       <c r="B212" s="129"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" s="127"/>
       <c r="B213" s="129"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" s="127"/>
       <c r="B214" s="129"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" s="127"/>
       <c r="B215" s="129"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" s="127"/>
       <c r="B216" s="129"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" s="127"/>
       <c r="B217" s="129"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" s="127"/>
       <c r="B218" s="129"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" s="127"/>
       <c r="B219" s="129"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" s="127"/>
       <c r="B220" s="129"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" s="127"/>
       <c r="B221" s="129"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" s="127"/>
       <c r="B222" s="129"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" s="127"/>
       <c r="B223" s="129"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" s="127"/>
       <c r="B224" s="129"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="127"/>
       <c r="B225" s="129"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" s="127"/>
       <c r="B226" s="129"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" s="127"/>
       <c r="B227" s="129"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" s="127"/>
       <c r="B228" s="129"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" s="127"/>
       <c r="B229" s="129"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" s="127"/>
       <c r="B230" s="129"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" s="127"/>
       <c r="B231" s="129"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" s="127"/>
       <c r="B232" s="129"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" s="127"/>
       <c r="B233" s="129"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" s="127"/>
       <c r="B234" s="129"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" s="127"/>
       <c r="B235" s="129"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" s="127"/>
       <c r="B236" s="129"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" s="127"/>
       <c r="B237" s="129"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="127"/>
       <c r="B238" s="129"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" s="127"/>
       <c r="B239" s="129"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" s="127"/>
       <c r="B240" s="129"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" s="127"/>
       <c r="B241" s="129"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" s="127"/>
       <c r="B242" s="129"/>
     </row>
